--- a/biology/Zoologie/Combattant_indien/Combattant_indien.xlsx
+++ b/biology/Zoologie/Combattant_indien/Combattant_indien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le « Combattant indien » est une race de poule domestique qui, en dépit de son nom, est d'origine anglaise. On l'appelle aussi en anglais « Poulet des Cornouailles » (Cornish chicken).
@@ -512,14 +524,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est une volaille d'exposition issue de combattants asiatiques lourds, courte sur pattes et aux cuisses bien écartées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une volaille d'exposition issue de combattants asiatiques lourds, courte sur pattes et aux cuisses bien écartées.
 Elle est musclée et de hauteur à peine moyenne, les tarses sont très forts et l'ensemble est un peu incliné.
-Origine
-Cette race est originaire d'Angleterre dans les Cornouailles ; elle a été sélectionnée avec l'asyl, le malais blanc, la cochin fauve et le shamo. Elle est reconnue parmi les 108 races de poule du British Poultry Standard.
-Standard officiel
-Crête : a pois, courte et large
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Combattant_indien</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combattant_indien</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race est originaire d'Angleterre dans les Cornouailles ; elle a été sélectionnée avec l'asyl, le malais blanc, la cochin fauve et le shamo. Elle est reconnue parmi les 108 races de poule du British Poultry Standard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Combattant_indien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combattant_indien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crête : a pois, courte et large
 Oreillons : rouges
 Couleur des yeux : jaune-orangé
 Couleur de la peau : jaune
